--- a/mason2000.xlsx
+++ b/mason2000.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liushiwen/Desktop/github/gre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liushiwen/Desktop/github/GRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11E343D8-3B81-B84B-A85E-4F7C85A80987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA657074-6ACA-1141-9484-199114378767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="24820" windowHeight="14920" xr2:uid="{8697171D-22D5-9345-B694-FDDA8C5AA867}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>acerbic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +451,158 @@
   </si>
   <si>
     <t>迷戀的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inimical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambulance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambulatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perambulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preamble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ramble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scramble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shamble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amplify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancestry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anguish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rectangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animosity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有敵意的；不和的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>從容漫步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>救護車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡行於；勘查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前言；序言；先兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閒逛；漫步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬行；攀爬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹣跚而行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大；詳述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>極大的痛苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有角的；有尖角的；瘦骨嶙峋的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批評；為難</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使有生命的；激勵；鼓舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animadvert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動畫；生氣；熱烈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憎惡；仇恨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栩栩如生的；活生生的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270888DA-4F3D-AE48-B8D4-A3CDFB7A3DFF}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1239,6 +1391,158 @@
         <v>103</v>
       </c>
     </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mason2000.xlsx
+++ b/mason2000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liushiwen/Desktop/github/GRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA657074-6ACA-1141-9484-199114378767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8379C4-5196-0844-972A-3A4A8D5DC2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="24820" windowHeight="14920" xr2:uid="{8697171D-22D5-9345-B694-FDDA8C5AA867}"/>
+    <workbookView xWindow="15180" yWindow="660" windowWidth="24820" windowHeight="14920" xr2:uid="{8697171D-22D5-9345-B694-FDDA8C5AA867}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>acerbic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -603,6 +603,134 @@
   </si>
   <si>
     <t>栩栩如生的；活生生的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pusillanimous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perennial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>misanthrope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>philanthropic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antecedent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antedate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antiquated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adaptive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aptitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aquarious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵意；憎恨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膽小的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>終年的；永久的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憤世嫉俗者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博愛的；仁慈的；慈善的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前身的；在先前的；先例；祖先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先於；早於</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過時的；陳舊的；老式的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古代的；古董</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>適應的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>適合的；易於…的；有…傾向的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>適宜；才能；資質</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟練的；內行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靈巧的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無能的；不恰當的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水瓶座</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -967,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270888DA-4F3D-AE48-B8D4-A3CDFB7A3DFF}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1543,6 +1671,134 @@
         <v>141</v>
       </c>
     </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mason2000.xlsx
+++ b/mason2000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liushiwen/Desktop/github/GRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8379C4-5196-0844-972A-3A4A8D5DC2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229ED199-1BBE-DA48-8D1F-05F2F802D08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="660" windowWidth="24820" windowHeight="14920" xr2:uid="{8697171D-22D5-9345-B694-FDDA8C5AA867}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{8697171D-22D5-9345-B694-FDDA8C5AA867}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>acerbic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -731,6 +731,150 @@
   </si>
   <si>
     <t>水瓶座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aqueous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arbitrary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arbitrage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arbitrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arboreal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arboretum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anarchy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hierarchy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monarch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monarchy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patriarchal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ardent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arsenal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armada</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armistice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artifice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>articulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>專橫的；不理智的；任意的；無理由的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套利；仲裁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲裁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樹木的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無政府；政治混亂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>階層；等級制度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君主；帝王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君主制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家長的；父權制的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱烈的；激烈的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縱火；放火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>軍械庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艦隊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休戰；停戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奸計；詭計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清楚表達的；口齒伶俐的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1095,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270888DA-4F3D-AE48-B8D4-A3CDFB7A3DFF}">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1799,6 +1943,150 @@
         <v>173</v>
       </c>
     </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>182</v>
+      </c>
+      <c r="B96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>184</v>
+      </c>
+      <c r="B98" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>185</v>
+      </c>
+      <c r="B99" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>187</v>
+      </c>
+      <c r="B101" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>191</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mason2000.xlsx
+++ b/mason2000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liushiwen/Desktop/github/GRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229ED199-1BBE-DA48-8D1F-05F2F802D08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6FA6BA-2619-4F43-8CAE-B7BC14090EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{8697171D-22D5-9345-B694-FDDA8C5AA867}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>acerbic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -875,6 +875,134 @@
   </si>
   <si>
     <t>清楚表達的；口齒伶俐的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asperity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exasperate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asterisk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asteroid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astronomical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>augment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>august</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authentic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authoritative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auxiliary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audacious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barricade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrister</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚴酷；粗魯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激怒；使惱怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小行星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天文學的；龐大的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威嚴的；高貴的；備受尊敬的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可信的；真實的；可靠的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>權威的；官方的；專斷的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輔助的；協助的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大膽的；無畏的；愚勇的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熱切的；狂熱的；渴望的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放逐；驅逐；驅逐出境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彈幕；如彈幕班噴發的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路障；街壘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>律師’</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1239,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270888DA-4F3D-AE48-B8D4-A3CDFB7A3DFF}">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2087,6 +2215,134 @@
         <v>209</v>
       </c>
     </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>213</v>
+      </c>
+      <c r="B109" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>216</v>
+      </c>
+      <c r="B112" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>217</v>
+      </c>
+      <c r="B113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>218</v>
+      </c>
+      <c r="B114" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>219</v>
+      </c>
+      <c r="B115" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>220</v>
+      </c>
+      <c r="B116" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>221</v>
+      </c>
+      <c r="B117" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>223</v>
+      </c>
+      <c r="B119" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>224</v>
+      </c>
+      <c r="B120" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>225</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mason2000.xlsx
+++ b/mason2000.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liushiwen/Desktop/github/GRE/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227DE611-6C09-0A4A-B576-58FA6DDA4D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="工作表1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -739,19 +745,19 @@
     <t>barrister</t>
   </si>
   <si>
-    <t>律師’</t>
+    <t>律師</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -760,6 +766,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -789,23 +802,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -816,10 +829,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -857,71 +870,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -949,7 +962,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -972,11 +985,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -985,13 +998,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1001,7 +1014,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1010,7 +1023,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1019,7 +1032,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1027,10 +1040,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1095,21 +1108,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:2" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row r="2" spans="1:2" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1125,7 +1139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row r="4" spans="1:2" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row r="5" spans="1:2" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row r="6" spans="1:2" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,7 +1171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row r="7" spans="1:2" ht="18" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1165,7 +1179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row r="8" spans="1:2" ht="18" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1173,7 +1187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row r="9" spans="1:2" ht="18" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1181,7 +1195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row r="10" spans="1:2" ht="18" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1189,7 +1203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row r="11" spans="1:2" ht="18" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,7 +1211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row r="12" spans="1:2" ht="18" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1205,7 +1219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row r="13" spans="1:2" ht="18" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1213,7 +1227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row r="14" spans="1:2" ht="18" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1221,7 +1235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row r="15" spans="1:2" ht="18" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1229,7 +1243,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row r="16" spans="1:2" ht="18" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1237,7 +1251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row r="17" spans="1:2" ht="18" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1245,7 +1259,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row r="18" spans="1:2" ht="18" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1253,7 +1267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row r="19" spans="1:2" ht="18" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1261,7 +1275,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+    <row r="20" spans="1:2" ht="18" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1269,7 +1283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+    <row r="21" spans="1:2" ht="18" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1277,7 +1291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+    <row r="22" spans="1:2" ht="18" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1285,7 +1299,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+    <row r="23" spans="1:2" ht="18" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1293,7 +1307,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+    <row r="24" spans="1:2" ht="18" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1301,7 +1315,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+    <row r="25" spans="1:2" ht="18" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1309,7 +1323,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+    <row r="26" spans="1:2" ht="18" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1317,7 +1331,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+    <row r="27" spans="1:2" ht="18" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1325,7 +1339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+    <row r="28" spans="1:2" ht="18" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1333,7 +1347,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+    <row r="29" spans="1:2" ht="18" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1341,7 +1355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+    <row r="30" spans="1:2" ht="18" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1349,7 +1363,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+    <row r="31" spans="1:2" ht="18" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1357,7 +1371,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+    <row r="32" spans="1:2" ht="18" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1365,7 +1379,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+    <row r="33" spans="1:2" ht="18" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1373,7 +1387,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+    <row r="34" spans="1:2" ht="18" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -1381,7 +1395,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+    <row r="35" spans="1:2" ht="18" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -1389,7 +1403,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
+    <row r="36" spans="1:2" ht="18" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -1397,7 +1411,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+    <row r="37" spans="1:2" ht="18" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -1405,7 +1419,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+    <row r="38" spans="1:2" ht="18" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -1413,7 +1427,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+    <row r="39" spans="1:2" ht="18" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -1421,7 +1435,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+    <row r="40" spans="1:2" ht="18" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -1429,7 +1443,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+    <row r="41" spans="1:2" ht="18" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -1437,7 +1451,7 @@
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+    <row r="42" spans="1:2" ht="18" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -1445,7 +1459,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
+    <row r="43" spans="1:2" ht="18" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -1453,7 +1467,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
+    <row r="44" spans="1:2" ht="18" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1461,7 +1475,7 @@
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
+    <row r="45" spans="1:2" ht="18" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -1469,7 +1483,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
+    <row r="46" spans="1:2" ht="18" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -1477,7 +1491,7 @@
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
+    <row r="47" spans="1:2" ht="18" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -1485,7 +1499,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
+    <row r="48" spans="1:2" ht="18" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -1493,7 +1507,7 @@
         <v>95</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
+    <row r="49" spans="1:2" ht="18" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -1501,7 +1515,7 @@
         <v>97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
+    <row r="50" spans="1:2" ht="18" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -1509,7 +1523,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
+    <row r="51" spans="1:2" ht="18" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -1517,7 +1531,7 @@
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
+    <row r="52" spans="1:2" ht="18" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -1525,7 +1539,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
+    <row r="53" spans="1:2" ht="18" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -1533,7 +1547,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
+    <row r="54" spans="1:2" ht="18" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -1541,7 +1555,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
+    <row r="55" spans="1:2" ht="18" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -1549,7 +1563,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
+    <row r="56" spans="1:2" ht="18" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -1557,7 +1571,7 @@
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
+    <row r="57" spans="1:2" ht="18" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -1565,7 +1579,7 @@
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+    <row r="58" spans="1:2" ht="19.5" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -1573,7 +1587,7 @@
         <v>115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+    <row r="59" spans="1:2" ht="19.5" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -1581,7 +1595,7 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    <row r="60" spans="1:2" ht="19.5" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -1589,7 +1603,7 @@
         <v>119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    <row r="61" spans="1:2" ht="19.5" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -1597,7 +1611,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    <row r="62" spans="1:2" ht="19.5" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -1605,7 +1619,7 @@
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    <row r="63" spans="1:2" ht="19.5" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -1613,7 +1627,7 @@
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    <row r="64" spans="1:2" ht="19.5" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -1621,7 +1635,7 @@
         <v>127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+    <row r="65" spans="1:2" ht="19.5" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -1629,7 +1643,7 @@
         <v>129</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+    <row r="66" spans="1:2" ht="19.5" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -1637,7 +1651,7 @@
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+    <row r="67" spans="1:2" ht="19.5" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -1645,7 +1659,7 @@
         <v>133</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+    <row r="68" spans="1:2" ht="19.5" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -1653,7 +1667,7 @@
         <v>135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+    <row r="69" spans="1:2" ht="19.5" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -1661,7 +1675,7 @@
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+    <row r="70" spans="1:2" ht="19.5" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -1669,7 +1683,7 @@
         <v>139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+    <row r="71" spans="1:2" ht="19.5" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -1677,7 +1691,7 @@
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+    <row r="72" spans="1:2" ht="19.5" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -1685,7 +1699,7 @@
         <v>143</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+    <row r="73" spans="1:2" ht="19.5" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -1693,7 +1707,7 @@
         <v>145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+    <row r="74" spans="1:2" ht="19.5" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -1701,7 +1715,7 @@
         <v>147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+    <row r="75" spans="1:2" ht="19.5" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -1709,7 +1723,7 @@
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+    <row r="76" spans="1:2" ht="19.5" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -1717,7 +1731,7 @@
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+    <row r="77" spans="1:2" ht="19.5" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -1725,7 +1739,7 @@
         <v>153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+    <row r="78" spans="1:2" ht="19.5" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -1733,7 +1747,7 @@
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+    <row r="79" spans="1:2" ht="19.5" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -1741,7 +1755,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+    <row r="80" spans="1:2" ht="19.5" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -1749,7 +1763,7 @@
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+    <row r="81" spans="1:2" ht="19.5" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -1757,7 +1771,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+    <row r="82" spans="1:2" ht="19.5" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -1765,7 +1779,7 @@
         <v>163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+    <row r="83" spans="1:2" ht="19.5" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -1773,7 +1787,7 @@
         <v>165</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+    <row r="84" spans="1:2" ht="19.5" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
@@ -1781,7 +1795,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+    <row r="85" spans="1:2" ht="19.5" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -1789,7 +1803,7 @@
         <v>169</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+    <row r="86" spans="1:2" ht="19.5" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
@@ -1797,7 +1811,7 @@
         <v>171</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+    <row r="87" spans="1:2" ht="19.5" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -1805,7 +1819,7 @@
         <v>173</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+    <row r="88" spans="1:2" ht="19.5" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -1813,7 +1827,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+    <row r="89" spans="1:2" ht="19.5" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
@@ -1821,7 +1835,7 @@
         <v>177</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+    <row r="90" spans="1:2" ht="19.5" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -1829,7 +1843,7 @@
         <v>179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+    <row r="91" spans="1:2" ht="19.5" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -1837,7 +1851,7 @@
         <v>181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
+    <row r="92" spans="1:2" ht="18" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
@@ -1845,7 +1859,7 @@
         <v>183</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
+    <row r="93" spans="1:2" ht="18" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -1853,7 +1867,7 @@
         <v>185</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
+    <row r="94" spans="1:2" ht="18" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
@@ -1861,7 +1875,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
+    <row r="95" spans="1:2" ht="18" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
@@ -1869,7 +1883,7 @@
         <v>189</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
+    <row r="96" spans="1:2" ht="18" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
@@ -1877,7 +1891,7 @@
         <v>191</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
+    <row r="97" spans="1:2" ht="18" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
@@ -1885,7 +1899,7 @@
         <v>193</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
+    <row r="98" spans="1:2" ht="18" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
@@ -1893,7 +1907,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
+    <row r="99" spans="1:2" ht="18" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>196</v>
       </c>
@@ -1901,7 +1915,7 @@
         <v>197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
+    <row r="100" spans="1:2" ht="18" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>198</v>
       </c>
@@ -1909,7 +1923,7 @@
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
+    <row r="101" spans="1:2" ht="18" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
@@ -1917,7 +1931,7 @@
         <v>201</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
+    <row r="102" spans="1:2" ht="18" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>202</v>
       </c>
@@ -1925,7 +1939,7 @@
         <v>203</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
+    <row r="103" spans="1:2" ht="18" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>204</v>
       </c>
@@ -1933,7 +1947,7 @@
         <v>205</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
+    <row r="104" spans="1:2" ht="18" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
@@ -1941,7 +1955,7 @@
         <v>207</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
+    <row r="105" spans="1:2" ht="18" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>208</v>
       </c>
@@ -1949,7 +1963,7 @@
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
+    <row r="106" spans="1:2" ht="18" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>210</v>
       </c>
@@ -1957,7 +1971,7 @@
         <v>211</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
+    <row r="107" spans="1:2" ht="18" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>212</v>
       </c>
@@ -1965,7 +1979,7 @@
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
+    <row r="108" spans="1:2" ht="18" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>214</v>
       </c>
@@ -1973,7 +1987,7 @@
         <v>215</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
+    <row r="109" spans="1:2" ht="18" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>216</v>
       </c>
@@ -1981,7 +1995,7 @@
         <v>217</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
+    <row r="110" spans="1:2" ht="18" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>218</v>
       </c>
@@ -1989,7 +2003,7 @@
         <v>219</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
+    <row r="111" spans="1:2" ht="18" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>220</v>
       </c>
@@ -1997,7 +2011,7 @@
         <v>221</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
+    <row r="112" spans="1:2" ht="18" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>222</v>
       </c>
@@ -2005,7 +2019,7 @@
         <v>223</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
+    <row r="113" spans="1:2" ht="18" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>224</v>
       </c>
@@ -2013,7 +2027,7 @@
         <v>225</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18">
+    <row r="114" spans="1:2" ht="18" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>226</v>
       </c>
@@ -2021,7 +2035,7 @@
         <v>227</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18">
+    <row r="115" spans="1:2" ht="18" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>228</v>
       </c>
@@ -2029,7 +2043,7 @@
         <v>229</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18">
+    <row r="116" spans="1:2" ht="18" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>230</v>
       </c>
@@ -2037,7 +2051,7 @@
         <v>231</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18">
+    <row r="117" spans="1:2" ht="18" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>232</v>
       </c>
@@ -2045,7 +2059,7 @@
         <v>233</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18">
+    <row r="118" spans="1:2" ht="18" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>234</v>
       </c>
@@ -2053,7 +2067,7 @@
         <v>235</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18">
+    <row r="119" spans="1:2" ht="18" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>236</v>
       </c>
@@ -2061,7 +2075,7 @@
         <v>237</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18">
+    <row r="120" spans="1:2" ht="18" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>238</v>
       </c>
@@ -2069,7 +2083,7 @@
         <v>239</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18">
+    <row r="121" spans="1:2" ht="18" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>240</v>
       </c>
@@ -2078,6 +2092,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mason2000.xlsx
+++ b/mason2000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liushiwen/Desktop/github/GRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227DE611-6C09-0A4A-B576-58FA6DDA4D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF590952-8C2B-AB46-97B6-03C1DC4F88A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>vocabulary</t>
   </si>
@@ -746,6 +746,287 @@
   </si>
   <si>
     <t>律師</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>embargo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>debase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>baton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>battalion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>combative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambaste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>benefactor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beneficent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>benign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>benevolent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballistics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bellicose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>belligerent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyperbole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebellious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>禁運令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>；封港令</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>基礎；卑賤的；低劣的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>貶低；貶損</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>指揮棒；警棍</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>軍營；軍隊</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>好鬥的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>痛打；痛罵</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>減輕；減少</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>行善者；捐助者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>慈善的；仁愛的；有益的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>良性的；無害的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>善心的；仁心的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>彈道學；發射學</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>好戰的；好鬥的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>發動戰爭的；好鬥的；好挑釁的</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>誇張法</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+      </rPr>
+      <t>反抗的；難控制的</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -753,7 +1034,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,6 +1054,12 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -802,9 +1089,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1112,10 +1402,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2091,6 +2381,142 @@
         <v>241</v>
       </c>
     </row>
+    <row r="122" spans="1:2" ht="15">
+      <c r="A122" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15">
+      <c r="A123" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15">
+      <c r="A124" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15">
+      <c r="A125" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15">
+      <c r="A126" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15">
+      <c r="A127" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15">
+      <c r="A128" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15">
+      <c r="A129" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15">
+      <c r="A130" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15">
+      <c r="A131" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15">
+      <c r="A132" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15">
+      <c r="A133" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15">
+      <c r="A134" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15">
+      <c r="A135" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15">
+      <c r="A136" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15">
+      <c r="A137" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15">
+      <c r="A138" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
